--- a/3rd Term/Info and Communication Tech's/Lab3/ЛР 3 Ольховский.xlsx
+++ b/3rd Term/Info and Communication Tech's/Lab3/ЛР 3 Ольховский.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programming\University Files\3rd Term\Info and Communication Tech's\Lab3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B264AA0-3BCE-4E78-A253-7620DC1429DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ECFBE90-B4F8-40CF-BA6C-584B825F2F7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="75">
   <si>
     <t>№ п.п.</t>
   </si>
@@ -251,6 +251,27 @@
   <si>
     <t>3 степень обученности</t>
   </si>
+  <si>
+    <t>Доля смартфонов среди мобильных телефонов</t>
+  </si>
+  <si>
+    <t>Смартфоны</t>
+  </si>
+  <si>
+    <t>Др. мобильные телефоны</t>
+  </si>
+  <si>
+    <t>Был незначительный денежный ущерб</t>
+  </si>
+  <si>
+    <t>Был значительный денежный ущерб</t>
+  </si>
+  <si>
+    <t>Не было денежного ущерба</t>
+  </si>
+  <si>
+    <t>Ущерб в следствие телефонного мошеннисчества</t>
+  </si>
 </sst>
 </file>
 
@@ -281,7 +302,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="36">
     <border>
       <left/>
       <right/>
@@ -634,11 +655,183 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -670,34 +863,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
@@ -709,26 +875,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -738,12 +889,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
@@ -763,12 +908,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -779,6 +918,105 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1199,6 +1437,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-8A4E-4A03-9C96-F39B1E1D3987}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -1214,6 +1457,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-8A4E-4A03-9C96-F39B1E1D3987}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -1229,6 +1477,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-8A4E-4A03-9C96-F39B1E1D3987}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:cat>
             <c:strRef>
@@ -2209,6 +2462,666 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Доля смартфонов среди </a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>мобильных телефонов</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'Итоговая таблица'!$B$46:$C$47</c15:sqref>
+                  </c15:fullRef>
+                  <c15:levelRef>
+                    <c15:sqref>'Итоговая таблица'!$B$47:$C$47</c15:sqref>
+                  </c15:levelRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'Итоговая таблица'!$B$47:$C$47</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Смартфоны</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Др. мобильные телефоны</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Итоговая таблица'!$B$48:$C$48</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>235</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>68</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CB46-46F0-82B7-E244781B3327}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Ущерб в следствие телефонного мошеннисчества</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Итоговая таблица'!$F$47:$K$47</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Был значительный денежный ущерб</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Итоговая таблица'!$L$46:$N$46</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2023</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Итоговая таблица'!$L$47:$N$47</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.04</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E410-4829-81DA-94B1205DA47F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Итоговая таблица'!$F$48:$K$48</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Был незначительный денежный ущерб</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Итоговая таблица'!$L$46:$N$46</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2023</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Итоговая таблица'!$L$48:$N$48</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.03</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E410-4829-81DA-94B1205DA47F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1133319120"/>
+        <c:axId val="1133318288"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1133319120"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1133318288"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1133318288"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1133319120"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2366,6 +3279,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -4443,6 +5436,1028 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -4593,6 +6608,78 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>566058</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1088572</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>141514</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Диаграмма 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B65CD536-2918-4E7C-B3C5-6A20C838857B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>174172</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>348343</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>141515</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Диаграмма 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54965F42-9FFC-463D-ACD6-EEA92CACF9FD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4859,10 +6946,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X27"/>
+  <dimension ref="A1:X49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="V29" sqref="V28:V29"/>
+    <sheetView tabSelected="1" zoomScale="36" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AA43" sqref="AA43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4878,103 +6965,103 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="47" t="s">
         <v>46</v>
       </c>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13" t="s">
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47" t="s">
         <v>47</v>
       </c>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="14" t="s">
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="47"/>
+      <c r="N1" s="48" t="s">
         <v>53</v>
       </c>
-      <c r="O1" s="14" t="s">
+      <c r="O1" s="48" t="s">
         <v>54</v>
       </c>
-      <c r="P1" s="14" t="s">
+      <c r="P1" s="48" t="s">
         <v>55</v>
       </c>
-      <c r="Q1" s="15" t="s">
+      <c r="Q1" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="S1" s="34" t="s">
+      <c r="S1" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="T1" s="35"/>
-      <c r="W1" s="42" t="s">
+      <c r="T1" s="33"/>
+      <c r="W1" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="X1" s="43"/>
+      <c r="X1" s="35"/>
     </row>
     <row r="2" spans="1:24" ht="70.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="16"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="18" t="s">
+      <c r="A2" s="46"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="F2" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="G2" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="H2" s="18" t="s">
+      <c r="H2" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="I2" s="18" t="s">
+      <c r="I2" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="J2" s="18" t="s">
+      <c r="J2" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="K2" s="18" t="s">
+      <c r="K2" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="L2" s="18" t="s">
+      <c r="L2" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="M2" s="18" t="s">
+      <c r="M2" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="N2" s="19"/>
-      <c r="O2" s="19"/>
-      <c r="P2" s="19"/>
-      <c r="Q2" s="20"/>
-      <c r="S2" s="36" t="s">
+      <c r="N2" s="49"/>
+      <c r="O2" s="49"/>
+      <c r="P2" s="49"/>
+      <c r="Q2" s="42"/>
+      <c r="S2" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="T2" s="37" t="s">
+      <c r="T2" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="W2" s="44" t="s">
+      <c r="W2" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="X2" s="45" t="s">
+      <c r="X2" s="27" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:24" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="21">
+      <c r="A3" s="12">
         <v>1</v>
       </c>
       <c r="B3" s="6" t="s">
@@ -4983,82 +7070,82 @@
       <c r="C3" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="22">
-        <f>VLOOKUP(C3,История,2,0)</f>
+      <c r="D3" s="13">
+        <f t="shared" ref="D3:D22" si="0">VLOOKUP(C3,История,2,0)</f>
         <v>89</v>
       </c>
-      <c r="E3" s="22">
-        <f>VLOOKUP(C3,Математика,2,0)</f>
+      <c r="E3" s="13">
+        <f t="shared" ref="E3:E22" si="1">VLOOKUP(C3,Математика,2,0)</f>
         <v>69</v>
       </c>
-      <c r="F3" s="22">
-        <f>VLOOKUP(C3,Информатика,2,0)</f>
+      <c r="F3" s="13">
+        <f t="shared" ref="F3:F22" si="2">VLOOKUP(C3,Информатика,2,0)</f>
         <v>15</v>
       </c>
-      <c r="G3" s="22">
-        <f>VLOOKUP(C3,Физика,2,0)</f>
+      <c r="G3" s="13">
+        <f t="shared" ref="G3:G22" si="3">VLOOKUP(C3,Физика,2,0)</f>
         <v>75</v>
       </c>
-      <c r="H3" s="22">
-        <f>VLOOKUP(C3,Черчение,2,0)</f>
+      <c r="H3" s="13">
+        <f t="shared" ref="H3:H22" si="4">VLOOKUP(C3,Черчение,2,0)</f>
         <v>65</v>
       </c>
-      <c r="I3" s="22">
+      <c r="I3" s="13">
         <f>IF(D3="н/я",0,IF(D3&lt;42,2,IF(AND(D3&gt;=42,D3&lt;=64),3,
 IF(AND(D3&gt;=65,D3&lt;=79),4,5))))</f>
         <v>5</v>
       </c>
-      <c r="J3" s="22">
-        <f t="shared" ref="J3:M18" si="0">IF(E3="н/я",0,IF(E3&lt;42,2,IF(AND(E3&gt;=42,E3&lt;=64),3,
+      <c r="J3" s="13">
+        <f t="shared" ref="J3:M18" si="5">IF(E3="н/я",0,IF(E3&lt;42,2,IF(AND(E3&gt;=42,E3&lt;=64),3,
 IF(AND(E3&gt;=65,E3&lt;=79),4,5))))</f>
         <v>4</v>
       </c>
-      <c r="K3" s="22">
-        <f t="shared" si="0"/>
+      <c r="K3" s="13">
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="L3" s="22">
-        <f t="shared" si="0"/>
+      <c r="L3" s="13">
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="M3" s="22">
-        <f t="shared" si="0"/>
+      <c r="M3" s="13">
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="N3" s="22">
+      <c r="N3" s="13">
         <f xml:space="preserve"> SUM(D3:H3)</f>
         <v>313</v>
       </c>
-      <c r="O3" s="22">
+      <c r="O3" s="13">
         <f>AVERAGE(I3:M3)</f>
         <v>3.8</v>
       </c>
-      <c r="P3" s="22" t="str">
+      <c r="P3" s="13" t="str">
         <f>IF(O3&lt;3,"1 степень обученности",IF(AND(O3&gt;=3,O3&lt;=4.2),"2 степень обученности","3 степень обученности"))</f>
         <v>2 степень обученности</v>
       </c>
-      <c r="Q3" s="23">
+      <c r="Q3" s="14">
         <f>IF(OR(RIGHT(C3,1)="П",O3&lt;4),0,
 IF(AND(O3&gt;4,O3&lt;5),3500,IF(O3=4,2000,5000)))</f>
         <v>0</v>
       </c>
-      <c r="S3" s="38">
+      <c r="S3" s="22">
         <v>5</v>
       </c>
-      <c r="T3" s="39">
+      <c r="T3" s="23">
         <f>COUNTIF(I3:I22,5)</f>
         <v>9</v>
       </c>
-      <c r="W3" s="46" t="s">
+      <c r="W3" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="X3" s="47">
+      <c r="X3" s="29">
         <f>SUMIF(P3:P22,"1 степень обученности",Q3:Q22)</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:24" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="21">
+      <c r="A4" s="12">
         <v>2</v>
       </c>
       <c r="B4" s="6" t="s">
@@ -5067,81 +7154,81 @@
       <c r="C4" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="22">
-        <f>VLOOKUP(C4,История,2,0)</f>
+      <c r="D4" s="13">
+        <f t="shared" si="0"/>
         <v>97</v>
       </c>
-      <c r="E4" s="22">
-        <f>VLOOKUP(C4,Математика,2,0)</f>
+      <c r="E4" s="13">
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="F4" s="22" t="str">
-        <f>VLOOKUP(C4,Информатика,2,0)</f>
+      <c r="F4" s="13" t="str">
+        <f t="shared" si="2"/>
         <v>н/я</v>
       </c>
-      <c r="G4" s="22">
-        <f>VLOOKUP(C4,Физика,2,0)</f>
+      <c r="G4" s="13">
+        <f t="shared" si="3"/>
         <v>74</v>
       </c>
-      <c r="H4" s="22">
-        <f>VLOOKUP(C4,Черчение,2,0)</f>
+      <c r="H4" s="13">
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
-      <c r="I4" s="22">
-        <f t="shared" ref="I4:I23" si="1">IF(D4="н/я",0,IF(D4&lt;42,2,IF(AND(D4&gt;=42,D4&lt;=64),3,
+      <c r="I4" s="13">
+        <f t="shared" ref="I4:I22" si="6">IF(D4="н/я",0,IF(D4&lt;42,2,IF(AND(D4&gt;=42,D4&lt;=64),3,
 IF(AND(D4&gt;=65,D4&lt;=79),4,5))))</f>
         <v>5</v>
       </c>
-      <c r="J4" s="22">
-        <f t="shared" si="0"/>
+      <c r="J4" s="13">
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="K4" s="22">
-        <f t="shared" si="0"/>
+      <c r="K4" s="13">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L4" s="22">
-        <f t="shared" si="0"/>
+      <c r="L4" s="13">
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="M4" s="22">
-        <f t="shared" si="0"/>
+      <c r="M4" s="13">
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="N4" s="22">
-        <f t="shared" ref="N4:N22" si="2" xml:space="preserve"> SUM(D4:H4)</f>
+      <c r="N4" s="13">
+        <f t="shared" ref="N4:N22" si="7" xml:space="preserve"> SUM(D4:H4)</f>
         <v>371</v>
       </c>
-      <c r="O4" s="22">
-        <f t="shared" ref="O4:O22" si="3">AVERAGE(I4:M4)</f>
+      <c r="O4" s="13">
+        <f t="shared" ref="O4:O22" si="8">AVERAGE(I4:M4)</f>
         <v>3.8</v>
       </c>
-      <c r="P4" s="22" t="str">
-        <f t="shared" ref="P4:P22" si="4">IF(O4&lt;3,"1 степень обученности",IF(AND(O4&gt;=3,O4&lt;=4.2),"2 степень обученности","3 степень обученности"))</f>
+      <c r="P4" s="13" t="str">
+        <f t="shared" ref="P4:P22" si="9">IF(O4&lt;3,"1 степень обученности",IF(AND(O4&gt;=3,O4&lt;=4.2),"2 степень обученности","3 степень обученности"))</f>
         <v>2 степень обученности</v>
       </c>
-      <c r="Q4" s="23">
-        <f t="shared" ref="Q4:Q22" si="5">IF(OR(RIGHT(C4,1)="П",O4&lt;4),0,
+      <c r="Q4" s="14">
+        <f t="shared" ref="Q4:Q22" si="10">IF(OR(RIGHT(C4,1)="П",O4&lt;4),0,
 IF(AND(O4&gt;4,O4&lt;5),3500,IF(O4=4,2000,5000)))</f>
         <v>0</v>
       </c>
-      <c r="S4" s="38">
+      <c r="S4" s="22">
         <v>4</v>
       </c>
-      <c r="T4" s="39">
+      <c r="T4" s="23">
         <f>COUNTIF(I3:I22,4)</f>
         <v>1</v>
       </c>
-      <c r="W4" s="46" t="s">
+      <c r="W4" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="X4" s="47">
+      <c r="X4" s="29">
         <f>SUMIF(P3:P22,"2 степень обученности",Q3:Q22)</f>
         <v>3500</v>
       </c>
     </row>
     <row r="5" spans="1:24" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="21">
+      <c r="A5" s="12">
         <v>3</v>
       </c>
       <c r="B5" s="6" t="s">
@@ -5150,79 +7237,79 @@
       <c r="C5" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="22">
-        <f>VLOOKUP(C5,История,2,0)</f>
+      <c r="D5" s="13">
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="E5" s="22" t="str">
-        <f>VLOOKUP(C5,Математика,2,0)</f>
+      <c r="E5" s="13" t="str">
+        <f t="shared" si="1"/>
         <v>н/я</v>
       </c>
-      <c r="F5" s="22">
-        <f>VLOOKUP(C5,Информатика,2,0)</f>
+      <c r="F5" s="13">
+        <f t="shared" si="2"/>
         <v>94</v>
       </c>
-      <c r="G5" s="22">
-        <f>VLOOKUP(C5,Физика,2,0)</f>
+      <c r="G5" s="13">
+        <f t="shared" si="3"/>
         <v>52</v>
       </c>
-      <c r="H5" s="22">
-        <f>VLOOKUP(C5,Черчение,2,0)</f>
+      <c r="H5" s="13">
+        <f t="shared" si="4"/>
         <v>99</v>
       </c>
-      <c r="I5" s="22">
-        <f t="shared" si="1"/>
+      <c r="I5" s="13">
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
-      <c r="J5" s="22">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K5" s="22">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="L5" s="22">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="M5" s="22">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="N5" s="22">
-        <f t="shared" si="2"/>
-        <v>258</v>
-      </c>
-      <c r="O5" s="22">
-        <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="P5" s="22" t="str">
-        <f t="shared" si="4"/>
-        <v>2 степень обученности</v>
-      </c>
-      <c r="Q5" s="23">
+      <c r="J5" s="13">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="S5" s="38">
+      <c r="K5" s="13">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="L5" s="13">
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
-      <c r="T5" s="39">
+      <c r="M5" s="13">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="N5" s="13">
+        <f t="shared" si="7"/>
+        <v>258</v>
+      </c>
+      <c r="O5" s="13">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="P5" s="13" t="str">
+        <f t="shared" si="9"/>
+        <v>2 степень обученности</v>
+      </c>
+      <c r="Q5" s="14">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="S5" s="22">
+        <v>3</v>
+      </c>
+      <c r="T5" s="23">
         <f>COUNTIF(I3:I22,3)</f>
         <v>2</v>
       </c>
-      <c r="W5" s="48" t="s">
+      <c r="W5" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="X5" s="49">
+      <c r="X5" s="31">
         <f>SUMIF(P3:P22,"3 степень обученности",Q3:Q22)</f>
         <v>7000</v>
       </c>
     </row>
     <row r="6" spans="1:24" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="21">
+      <c r="A6" s="12">
         <v>4</v>
       </c>
       <c r="B6" s="6" t="s">
@@ -5231,72 +7318,72 @@
       <c r="C6" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="22">
-        <f>VLOOKUP(C6,История,2,0)</f>
+      <c r="D6" s="13">
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="E6" s="22">
-        <f>VLOOKUP(C6,Математика,2,0)</f>
+      <c r="E6" s="13">
+        <f t="shared" si="1"/>
         <v>99</v>
       </c>
-      <c r="F6" s="22">
-        <f>VLOOKUP(C6,Информатика,2,0)</f>
+      <c r="F6" s="13">
+        <f t="shared" si="2"/>
         <v>85</v>
       </c>
-      <c r="G6" s="22" t="str">
-        <f>VLOOKUP(C6,Физика,2,0)</f>
+      <c r="G6" s="13" t="str">
+        <f t="shared" si="3"/>
         <v>н/я</v>
       </c>
-      <c r="H6" s="22">
-        <f>VLOOKUP(C6,Черчение,2,0)</f>
+      <c r="H6" s="13">
+        <f t="shared" si="4"/>
         <v>79</v>
       </c>
-      <c r="I6" s="22">
-        <f t="shared" si="1"/>
+      <c r="I6" s="13">
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
-      <c r="J6" s="22">
-        <f t="shared" si="0"/>
+      <c r="J6" s="13">
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="K6" s="22">
-        <f t="shared" si="0"/>
+      <c r="K6" s="13">
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="L6" s="22">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M6" s="22">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="N6" s="22">
-        <f t="shared" si="2"/>
-        <v>363</v>
-      </c>
-      <c r="O6" s="22">
-        <f t="shared" si="3"/>
-        <v>3.8</v>
-      </c>
-      <c r="P6" s="22" t="str">
-        <f t="shared" si="4"/>
-        <v>2 степень обученности</v>
-      </c>
-      <c r="Q6" s="23">
+      <c r="L6" s="13">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="S6" s="38">
+      <c r="M6" s="13">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="N6" s="13">
+        <f t="shared" si="7"/>
+        <v>363</v>
+      </c>
+      <c r="O6" s="13">
+        <f t="shared" si="8"/>
+        <v>3.8</v>
+      </c>
+      <c r="P6" s="13" t="str">
+        <f t="shared" si="9"/>
+        <v>2 степень обученности</v>
+      </c>
+      <c r="Q6" s="14">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="S6" s="22">
         <v>2</v>
       </c>
-      <c r="T6" s="39">
+      <c r="T6" s="23">
         <f>COUNTIF(I3:I22,2)</f>
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:24" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="21">
+      <c r="A7" s="12">
         <v>5</v>
       </c>
       <c r="B7" s="6" t="s">
@@ -5305,72 +7392,72 @@
       <c r="C7" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="22">
-        <f>VLOOKUP(C7,История,2,0)</f>
+      <c r="D7" s="13">
+        <f t="shared" si="0"/>
         <v>88</v>
       </c>
-      <c r="E7" s="22">
-        <f>VLOOKUP(C7,Математика,2,0)</f>
+      <c r="E7" s="13">
+        <f t="shared" si="1"/>
         <v>75</v>
       </c>
-      <c r="F7" s="22">
-        <f>VLOOKUP(C7,Информатика,2,0)</f>
+      <c r="F7" s="13">
+        <f t="shared" si="2"/>
         <v>78</v>
       </c>
-      <c r="G7" s="22">
-        <f>VLOOKUP(C7,Физика,2,0)</f>
+      <c r="G7" s="13">
+        <f t="shared" si="3"/>
         <v>99</v>
       </c>
-      <c r="H7" s="22">
-        <f>VLOOKUP(C7,Черчение,2,0)</f>
+      <c r="H7" s="13">
+        <f t="shared" si="4"/>
         <v>88</v>
       </c>
-      <c r="I7" s="22">
-        <f t="shared" si="1"/>
+      <c r="I7" s="13">
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
-      <c r="J7" s="22">
-        <f t="shared" si="0"/>
+      <c r="J7" s="13">
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="K7" s="22">
-        <f t="shared" si="0"/>
+      <c r="K7" s="13">
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="L7" s="22">
-        <f t="shared" si="0"/>
+      <c r="L7" s="13">
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="M7" s="22">
-        <f t="shared" si="0"/>
+      <c r="M7" s="13">
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="N7" s="22">
-        <f t="shared" si="2"/>
+      <c r="N7" s="13">
+        <f t="shared" si="7"/>
         <v>428</v>
       </c>
-      <c r="O7" s="22">
-        <f t="shared" si="3"/>
+      <c r="O7" s="13">
+        <f t="shared" si="8"/>
         <v>4.5999999999999996</v>
       </c>
-      <c r="P7" s="22" t="str">
-        <f t="shared" si="4"/>
+      <c r="P7" s="13" t="str">
+        <f t="shared" si="9"/>
         <v>3 степень обученности</v>
       </c>
-      <c r="Q7" s="23">
-        <f t="shared" si="5"/>
+      <c r="Q7" s="14">
+        <f t="shared" si="10"/>
         <v>3500</v>
       </c>
-      <c r="S7" s="38">
+      <c r="S7" s="22">
         <v>1</v>
       </c>
-      <c r="T7" s="39">
+      <c r="T7" s="23">
         <f>COUNTIF(I3:I22,1)</f>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:24" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="21">
+      <c r="A8" s="12">
         <v>6</v>
       </c>
       <c r="B8" s="6" t="s">
@@ -5379,542 +7466,542 @@
       <c r="C8" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="22">
-        <f>VLOOKUP(C8,История,2,0)</f>
+      <c r="D8" s="13">
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="E8" s="22">
-        <f>VLOOKUP(C8,Математика,2,0)</f>
+      <c r="E8" s="13">
+        <f t="shared" si="1"/>
         <v>45</v>
       </c>
-      <c r="F8" s="22">
-        <f>VLOOKUP(C8,Информатика,2,0)</f>
+      <c r="F8" s="13">
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
-      <c r="G8" s="22">
-        <f>VLOOKUP(C8,Физика,2,0)</f>
+      <c r="G8" s="13">
+        <f t="shared" si="3"/>
         <v>25</v>
       </c>
-      <c r="H8" s="22">
-        <f>VLOOKUP(C8,Черчение,2,0)</f>
+      <c r="H8" s="13">
+        <f t="shared" si="4"/>
         <v>86</v>
       </c>
-      <c r="I8" s="22">
+      <c r="I8" s="13">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="J8" s="13">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="K8" s="13">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="L8" s="13">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="M8" s="13">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="N8" s="13">
+        <f t="shared" si="7"/>
+        <v>196</v>
+      </c>
+      <c r="O8" s="13">
+        <f t="shared" si="8"/>
+        <v>2.8</v>
+      </c>
+      <c r="P8" s="13" t="str">
+        <f t="shared" si="9"/>
+        <v>1 степень обученности</v>
+      </c>
+      <c r="Q8" s="14">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="S8" s="24">
+        <v>0</v>
+      </c>
+      <c r="T8" s="25">
+        <f>COUNTIF(I3:I22,0)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="12">
+        <v>7</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="13">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="E9" s="13">
         <f t="shared" si="1"/>
+        <v>56</v>
+      </c>
+      <c r="F9" s="13">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="G9" s="13">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+      <c r="H9" s="13">
+        <f t="shared" si="4"/>
+        <v>71</v>
+      </c>
+      <c r="I9" s="13">
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
-      <c r="J8" s="22">
+      <c r="J9" s="13">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="K9" s="13">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="L9" s="13">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="M9" s="13">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="N9" s="13">
+        <f t="shared" si="7"/>
+        <v>178</v>
+      </c>
+      <c r="O9" s="13">
+        <f t="shared" si="8"/>
+        <v>2.6</v>
+      </c>
+      <c r="P9" s="13" t="str">
+        <f t="shared" si="9"/>
+        <v>1 степень обученности</v>
+      </c>
+      <c r="Q9" s="14">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="12">
+        <v>8</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="13">
         <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="E10" s="13">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="F10" s="13">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="G10" s="13">
+        <f t="shared" si="3"/>
+        <v>45</v>
+      </c>
+      <c r="H10" s="13">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="I10" s="13">
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
-      <c r="K8" s="22">
+      <c r="J10" s="13">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="K10" s="13">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="L10" s="13">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="M10" s="13">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="N10" s="13">
+        <f t="shared" si="7"/>
+        <v>220</v>
+      </c>
+      <c r="O10" s="13">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="P10" s="13" t="str">
+        <f t="shared" si="9"/>
+        <v>2 степень обученности</v>
+      </c>
+      <c r="Q10" s="14">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="12">
+        <v>9</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="13" t="str">
         <f t="shared" si="0"/>
+        <v>н/я</v>
+      </c>
+      <c r="E11" s="13">
+        <f t="shared" si="1"/>
+        <v>29</v>
+      </c>
+      <c r="F11" s="13">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="G11" s="13">
+        <f t="shared" si="3"/>
+        <v>89</v>
+      </c>
+      <c r="H11" s="13">
+        <f t="shared" si="4"/>
+        <v>89</v>
+      </c>
+      <c r="I11" s="13">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J11" s="13">
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="L8" s="22">
+      <c r="K11" s="13">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="L11" s="13">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="M11" s="13">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="N11" s="13">
+        <f t="shared" si="7"/>
+        <v>232</v>
+      </c>
+      <c r="O11" s="13">
+        <f t="shared" si="8"/>
+        <v>2.8</v>
+      </c>
+      <c r="P11" s="13" t="str">
+        <f t="shared" si="9"/>
+        <v>1 степень обученности</v>
+      </c>
+      <c r="Q11" s="14">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="12">
+        <v>10</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="13">
         <f t="shared" si="0"/>
+        <v>89</v>
+      </c>
+      <c r="E12" s="13">
+        <f t="shared" si="1"/>
+        <v>95</v>
+      </c>
+      <c r="F12" s="13">
+        <f t="shared" si="2"/>
+        <v>55</v>
+      </c>
+      <c r="G12" s="13">
+        <f t="shared" si="3"/>
+        <v>77</v>
+      </c>
+      <c r="H12" s="13">
+        <f t="shared" si="4"/>
+        <v>71</v>
+      </c>
+      <c r="I12" s="13">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="J12" s="13">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="K12" s="13">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="L12" s="13">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="M12" s="13">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="N12" s="13">
+        <f t="shared" si="7"/>
+        <v>387</v>
+      </c>
+      <c r="O12" s="13">
+        <f t="shared" si="8"/>
+        <v>4.2</v>
+      </c>
+      <c r="P12" s="13" t="str">
+        <f t="shared" si="9"/>
+        <v>2 степень обученности</v>
+      </c>
+      <c r="Q12" s="14">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="12">
+        <v>11</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="13">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="E13" s="13">
+        <f t="shared" si="1"/>
+        <v>99</v>
+      </c>
+      <c r="F13" s="13">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="G13" s="13">
+        <f t="shared" si="3"/>
+        <v>95</v>
+      </c>
+      <c r="H13" s="13">
+        <f t="shared" si="4"/>
+        <v>72</v>
+      </c>
+      <c r="I13" s="13">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="J13" s="13">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="K13" s="13">
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="M8" s="22">
+      <c r="L13" s="13">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="M13" s="13">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="N13" s="13">
+        <f t="shared" si="7"/>
+        <v>334</v>
+      </c>
+      <c r="O13" s="13">
+        <f t="shared" si="8"/>
+        <v>3.8</v>
+      </c>
+      <c r="P13" s="13" t="str">
+        <f t="shared" si="9"/>
+        <v>2 степень обученности</v>
+      </c>
+      <c r="Q13" s="14">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="12">
+        <v>12</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="13">
         <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="N8" s="22">
+        <v>29</v>
+      </c>
+      <c r="E14" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>н/я</v>
+      </c>
+      <c r="F14" s="13">
         <f t="shared" si="2"/>
-        <v>196</v>
-      </c>
-      <c r="O8" s="22">
+        <v>85</v>
+      </c>
+      <c r="G14" s="13">
         <f t="shared" si="3"/>
-        <v>2.8</v>
-      </c>
-      <c r="P8" s="22" t="str">
+        <v>99</v>
+      </c>
+      <c r="H14" s="13">
         <f t="shared" si="4"/>
-        <v>1 степень обученности</v>
-      </c>
-      <c r="Q8" s="23">
+        <v>89</v>
+      </c>
+      <c r="I14" s="13">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="J14" s="13">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="S8" s="40">
+      <c r="K14" s="13">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="L14" s="13">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="M14" s="13">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="N14" s="13">
+        <f t="shared" si="7"/>
+        <v>302</v>
+      </c>
+      <c r="O14" s="13">
+        <f t="shared" si="8"/>
+        <v>3.4</v>
+      </c>
+      <c r="P14" s="13" t="str">
+        <f t="shared" si="9"/>
+        <v>2 степень обученности</v>
+      </c>
+      <c r="Q14" s="14">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="T8" s="41">
-        <f>COUNTIF(I3:I22,0)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="21">
-        <v>7</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" s="22">
-        <f>VLOOKUP(C9,История,2,0)</f>
-        <v>26</v>
-      </c>
-      <c r="E9" s="22">
-        <f>VLOOKUP(C9,Математика,2,0)</f>
-        <v>56</v>
-      </c>
-      <c r="F9" s="22">
-        <f>VLOOKUP(C9,Информатика,2,0)</f>
-        <v>10</v>
-      </c>
-      <c r="G9" s="22">
-        <f>VLOOKUP(C9,Физика,2,0)</f>
-        <v>15</v>
-      </c>
-      <c r="H9" s="22">
-        <f>VLOOKUP(C9,Черчение,2,0)</f>
+    </row>
+    <row r="15" spans="1:24" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="12">
+        <v>13</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="13">
+        <f t="shared" si="0"/>
+        <v>95</v>
+      </c>
+      <c r="E15" s="13">
+        <f t="shared" si="1"/>
+        <v>85</v>
+      </c>
+      <c r="F15" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>н/я</v>
+      </c>
+      <c r="G15" s="13">
+        <f t="shared" si="3"/>
+        <v>96</v>
+      </c>
+      <c r="H15" s="13">
+        <f t="shared" si="4"/>
         <v>71</v>
       </c>
-      <c r="I9" s="22">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="J9" s="22">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="K9" s="22">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="L9" s="22">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="M9" s="22">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="N9" s="22">
-        <f t="shared" si="2"/>
-        <v>178</v>
-      </c>
-      <c r="O9" s="22">
-        <f t="shared" si="3"/>
-        <v>2.6</v>
-      </c>
-      <c r="P9" s="22" t="str">
-        <f t="shared" si="4"/>
-        <v>1 степень обученности</v>
-      </c>
-      <c r="Q9" s="23">
+      <c r="I15" s="13">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="J15" s="13">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="K15" s="13">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="21">
-        <v>8</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" s="22">
-        <f>VLOOKUP(C10,История,2,0)</f>
-        <v>45</v>
-      </c>
-      <c r="E10" s="22">
-        <f>VLOOKUP(C10,Математика,2,0)</f>
-        <v>15</v>
-      </c>
-      <c r="F10" s="22">
-        <f>VLOOKUP(C10,Информатика,2,0)</f>
-        <v>15</v>
-      </c>
-      <c r="G10" s="22">
-        <f>VLOOKUP(C10,Физика,2,0)</f>
-        <v>45</v>
-      </c>
-      <c r="H10" s="22">
-        <f>VLOOKUP(C10,Черчение,2,0)</f>
-        <v>100</v>
-      </c>
-      <c r="I10" s="22">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="J10" s="22">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="K10" s="22">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="L10" s="22">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="M10" s="22">
-        <f t="shared" si="0"/>
+      <c r="L15" s="13">
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="N10" s="22">
-        <f t="shared" si="2"/>
-        <v>220</v>
-      </c>
-      <c r="O10" s="22">
-        <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="P10" s="22" t="str">
-        <f t="shared" si="4"/>
+      <c r="M15" s="13">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="N15" s="13">
+        <f t="shared" si="7"/>
+        <v>347</v>
+      </c>
+      <c r="O15" s="13">
+        <f t="shared" si="8"/>
+        <v>3.8</v>
+      </c>
+      <c r="P15" s="13" t="str">
+        <f t="shared" si="9"/>
         <v>2 степень обученности</v>
       </c>
-      <c r="Q10" s="23">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="21">
-        <v>9</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D11" s="22" t="str">
-        <f>VLOOKUP(C11,История,2,0)</f>
-        <v>н/я</v>
-      </c>
-      <c r="E11" s="22">
-        <f>VLOOKUP(C11,Математика,2,0)</f>
-        <v>29</v>
-      </c>
-      <c r="F11" s="22">
-        <f>VLOOKUP(C11,Информатика,2,0)</f>
-        <v>25</v>
-      </c>
-      <c r="G11" s="22">
-        <f>VLOOKUP(C11,Физика,2,0)</f>
-        <v>89</v>
-      </c>
-      <c r="H11" s="22">
-        <f>VLOOKUP(C11,Черчение,2,0)</f>
-        <v>89</v>
-      </c>
-      <c r="I11" s="22">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J11" s="22">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="K11" s="22">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="L11" s="22">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="M11" s="22">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="N11" s="22">
-        <f t="shared" si="2"/>
-        <v>232</v>
-      </c>
-      <c r="O11" s="22">
-        <f t="shared" si="3"/>
-        <v>2.8</v>
-      </c>
-      <c r="P11" s="22" t="str">
-        <f t="shared" si="4"/>
-        <v>1 степень обученности</v>
-      </c>
-      <c r="Q11" s="23">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:24" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="21">
-        <v>10</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D12" s="22">
-        <f>VLOOKUP(C12,История,2,0)</f>
-        <v>89</v>
-      </c>
-      <c r="E12" s="22">
-        <f>VLOOKUP(C12,Математика,2,0)</f>
-        <v>95</v>
-      </c>
-      <c r="F12" s="22">
-        <f>VLOOKUP(C12,Информатика,2,0)</f>
-        <v>55</v>
-      </c>
-      <c r="G12" s="22">
-        <f>VLOOKUP(C12,Физика,2,0)</f>
-        <v>77</v>
-      </c>
-      <c r="H12" s="22">
-        <f>VLOOKUP(C12,Черчение,2,0)</f>
-        <v>71</v>
-      </c>
-      <c r="I12" s="22">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="J12" s="22">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="K12" s="22">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="L12" s="22">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="M12" s="22">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="N12" s="22">
-        <f t="shared" si="2"/>
-        <v>387</v>
-      </c>
-      <c r="O12" s="22">
-        <f t="shared" si="3"/>
-        <v>4.2</v>
-      </c>
-      <c r="P12" s="22" t="str">
-        <f t="shared" si="4"/>
-        <v>2 степень обученности</v>
-      </c>
-      <c r="Q12" s="23">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="21">
-        <v>11</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D13" s="22">
-        <f>VLOOKUP(C13,История,2,0)</f>
-        <v>44</v>
-      </c>
-      <c r="E13" s="22">
-        <f>VLOOKUP(C13,Математика,2,0)</f>
-        <v>99</v>
-      </c>
-      <c r="F13" s="22">
-        <f>VLOOKUP(C13,Информатика,2,0)</f>
-        <v>24</v>
-      </c>
-      <c r="G13" s="22">
-        <f>VLOOKUP(C13,Физика,2,0)</f>
-        <v>95</v>
-      </c>
-      <c r="H13" s="22">
-        <f>VLOOKUP(C13,Черчение,2,0)</f>
-        <v>72</v>
-      </c>
-      <c r="I13" s="22">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="J13" s="22">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="K13" s="22">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="L13" s="22">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="M13" s="22">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="N13" s="22">
-        <f t="shared" si="2"/>
-        <v>334</v>
-      </c>
-      <c r="O13" s="22">
-        <f t="shared" si="3"/>
-        <v>3.8</v>
-      </c>
-      <c r="P13" s="22" t="str">
-        <f t="shared" si="4"/>
-        <v>2 степень обученности</v>
-      </c>
-      <c r="Q13" s="23">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:24" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="21">
-        <v>12</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D14" s="22">
-        <f>VLOOKUP(C14,История,2,0)</f>
-        <v>29</v>
-      </c>
-      <c r="E14" s="22" t="str">
-        <f>VLOOKUP(C14,Математика,2,0)</f>
-        <v>н/я</v>
-      </c>
-      <c r="F14" s="22">
-        <f>VLOOKUP(C14,Информатика,2,0)</f>
-        <v>85</v>
-      </c>
-      <c r="G14" s="22">
-        <f>VLOOKUP(C14,Физика,2,0)</f>
-        <v>99</v>
-      </c>
-      <c r="H14" s="22">
-        <f>VLOOKUP(C14,Черчение,2,0)</f>
-        <v>89</v>
-      </c>
-      <c r="I14" s="22">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="J14" s="22">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K14" s="22">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="L14" s="22">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="M14" s="22">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="N14" s="22">
-        <f t="shared" si="2"/>
-        <v>302</v>
-      </c>
-      <c r="O14" s="22">
-        <f t="shared" si="3"/>
-        <v>3.4</v>
-      </c>
-      <c r="P14" s="22" t="str">
-        <f t="shared" si="4"/>
-        <v>2 степень обученности</v>
-      </c>
-      <c r="Q14" s="23">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="21">
-        <v>13</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D15" s="22">
-        <f>VLOOKUP(C15,История,2,0)</f>
-        <v>95</v>
-      </c>
-      <c r="E15" s="22">
-        <f>VLOOKUP(C15,Математика,2,0)</f>
-        <v>85</v>
-      </c>
-      <c r="F15" s="22" t="str">
-        <f>VLOOKUP(C15,Информатика,2,0)</f>
-        <v>н/я</v>
-      </c>
-      <c r="G15" s="22">
-        <f>VLOOKUP(C15,Физика,2,0)</f>
-        <v>96</v>
-      </c>
-      <c r="H15" s="22">
-        <f>VLOOKUP(C15,Черчение,2,0)</f>
-        <v>71</v>
-      </c>
-      <c r="I15" s="22">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="J15" s="22">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="K15" s="22">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L15" s="22">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="M15" s="22">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="N15" s="22">
-        <f t="shared" si="2"/>
-        <v>347</v>
-      </c>
-      <c r="O15" s="22">
-        <f t="shared" si="3"/>
-        <v>3.8</v>
-      </c>
-      <c r="P15" s="22" t="str">
-        <f t="shared" si="4"/>
-        <v>2 степень обученности</v>
-      </c>
-      <c r="Q15" s="23">
+      <c r="Q15" s="14">
         <f>IF(OR(RIGHT(C15,1)="П",O15&lt;4),0,
 IF(AND(O15&gt;4,O15&lt;5),3500,IF(O15=4,2000,5000)))</f>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:24" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="21">
+      <c r="A16" s="12">
         <v>14</v>
       </c>
       <c r="B16" s="6" t="s">
@@ -5923,199 +8010,199 @@
       <c r="C16" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D16" s="22">
-        <f>VLOOKUP(C16,История,2,0)</f>
+      <c r="D16" s="13">
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="E16" s="22">
-        <f>VLOOKUP(C16,Математика,2,0)</f>
+      <c r="E16" s="13">
+        <f t="shared" si="1"/>
         <v>75</v>
       </c>
-      <c r="F16" s="22">
-        <f>VLOOKUP(C16,Информатика,2,0)</f>
+      <c r="F16" s="13">
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
-      <c r="G16" s="22">
-        <f>VLOOKUP(C16,Физика,2,0)</f>
+      <c r="G16" s="13">
+        <f t="shared" si="3"/>
         <v>92</v>
       </c>
-      <c r="H16" s="22">
-        <f>VLOOKUP(C16,Черчение,2,0)</f>
+      <c r="H16" s="13">
+        <f t="shared" si="4"/>
         <v>90</v>
       </c>
-      <c r="I16" s="22">
+      <c r="I16" s="13">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="J16" s="13">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="K16" s="13">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="L16" s="13">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="M16" s="13">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="N16" s="13">
+        <f t="shared" si="7"/>
+        <v>372</v>
+      </c>
+      <c r="O16" s="13">
+        <f t="shared" si="8"/>
+        <v>4.2</v>
+      </c>
+      <c r="P16" s="13" t="str">
+        <f t="shared" si="9"/>
+        <v>2 степень обученности</v>
+      </c>
+      <c r="Q16" s="14">
+        <f t="shared" si="10"/>
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="12">
+        <v>15</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" s="13">
+        <f t="shared" si="0"/>
+        <v>67</v>
+      </c>
+      <c r="E17" s="13">
         <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="J16" s="22">
-        <f t="shared" si="0"/>
+        <v>78</v>
+      </c>
+      <c r="F17" s="13">
+        <f t="shared" si="2"/>
+        <v>76</v>
+      </c>
+      <c r="G17" s="13">
+        <f t="shared" si="3"/>
+        <v>85</v>
+      </c>
+      <c r="H17" s="13">
+        <f t="shared" si="4"/>
+        <v>93</v>
+      </c>
+      <c r="I17" s="13">
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
-      <c r="K16" s="22">
+      <c r="J17" s="13">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="K17" s="13">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="L17" s="13">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="M17" s="13">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="N17" s="13">
+        <f t="shared" si="7"/>
+        <v>399</v>
+      </c>
+      <c r="O17" s="13">
+        <f t="shared" si="8"/>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="P17" s="13" t="str">
+        <f t="shared" si="9"/>
+        <v>3 степень обученности</v>
+      </c>
+      <c r="Q17" s="14">
+        <f t="shared" si="10"/>
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="12">
+        <v>16</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" s="13">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="L16" s="22">
-        <f t="shared" si="0"/>
+      <c r="E18" s="13">
+        <f t="shared" si="1"/>
+        <v>95</v>
+      </c>
+      <c r="F18" s="13">
+        <f t="shared" si="2"/>
+        <v>78</v>
+      </c>
+      <c r="G18" s="13">
+        <f t="shared" si="3"/>
+        <v>88</v>
+      </c>
+      <c r="H18" s="13">
+        <f t="shared" si="4"/>
+        <v>85</v>
+      </c>
+      <c r="I18" s="13">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="J18" s="13">
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="M16" s="22">
-        <f t="shared" si="0"/>
+      <c r="K18" s="13">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="L18" s="13">
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="N16" s="22">
-        <f t="shared" si="2"/>
-        <v>372</v>
-      </c>
-      <c r="O16" s="22">
-        <f t="shared" si="3"/>
+      <c r="M18" s="13">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="N18" s="13">
+        <f t="shared" si="7"/>
+        <v>351</v>
+      </c>
+      <c r="O18" s="13">
+        <f t="shared" si="8"/>
         <v>4.2</v>
       </c>
-      <c r="P16" s="22" t="str">
-        <f t="shared" si="4"/>
+      <c r="P18" s="13" t="str">
+        <f t="shared" si="9"/>
         <v>2 степень обученности</v>
       </c>
-      <c r="Q16" s="23">
-        <f t="shared" si="5"/>
-        <v>3500</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="21">
-        <v>15</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="D17" s="22">
-        <f>VLOOKUP(C17,История,2,0)</f>
-        <v>67</v>
-      </c>
-      <c r="E17" s="22">
-        <f>VLOOKUP(C17,Математика,2,0)</f>
-        <v>78</v>
-      </c>
-      <c r="F17" s="22">
-        <f>VLOOKUP(C17,Информатика,2,0)</f>
-        <v>76</v>
-      </c>
-      <c r="G17" s="22">
-        <f>VLOOKUP(C17,Физика,2,0)</f>
-        <v>85</v>
-      </c>
-      <c r="H17" s="22">
-        <f>VLOOKUP(C17,Черчение,2,0)</f>
-        <v>93</v>
-      </c>
-      <c r="I17" s="22">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="J17" s="22">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="K17" s="22">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="L17" s="22">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="M17" s="22">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="N17" s="22">
-        <f t="shared" si="2"/>
-        <v>399</v>
-      </c>
-      <c r="O17" s="22">
-        <f t="shared" si="3"/>
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="P17" s="22" t="str">
-        <f t="shared" si="4"/>
-        <v>3 степень обученности</v>
-      </c>
-      <c r="Q17" s="23">
-        <f t="shared" si="5"/>
-        <v>3500</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="21">
-        <v>16</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D18" s="22">
-        <f>VLOOKUP(C18,История,2,0)</f>
-        <v>5</v>
-      </c>
-      <c r="E18" s="22">
-        <f>VLOOKUP(C18,Математика,2,0)</f>
-        <v>95</v>
-      </c>
-      <c r="F18" s="22">
-        <f>VLOOKUP(C18,Информатика,2,0)</f>
-        <v>78</v>
-      </c>
-      <c r="G18" s="22">
-        <f>VLOOKUP(C18,Физика,2,0)</f>
-        <v>88</v>
-      </c>
-      <c r="H18" s="22">
-        <f>VLOOKUP(C18,Черчение,2,0)</f>
-        <v>85</v>
-      </c>
-      <c r="I18" s="22">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="J18" s="22">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="K18" s="22">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="L18" s="22">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="M18" s="22">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="N18" s="22">
-        <f t="shared" si="2"/>
-        <v>351</v>
-      </c>
-      <c r="O18" s="22">
-        <f t="shared" si="3"/>
-        <v>4.2</v>
-      </c>
-      <c r="P18" s="22" t="str">
-        <f t="shared" si="4"/>
-        <v>2 степень обученности</v>
-      </c>
-      <c r="Q18" s="23">
-        <f t="shared" si="5"/>
+      <c r="Q18" s="14">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:17" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="21">
+      <c r="A19" s="12">
         <v>17</v>
       </c>
       <c r="B19" s="6" t="s">
@@ -6124,69 +8211,69 @@
       <c r="C19" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D19" s="22">
-        <f>VLOOKUP(C19,История,2,0)</f>
+      <c r="D19" s="13">
+        <f t="shared" si="0"/>
         <v>87</v>
       </c>
-      <c r="E19" s="22">
-        <f>VLOOKUP(C19,Математика,2,0)</f>
+      <c r="E19" s="13">
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="F19" s="22">
-        <f>VLOOKUP(C19,Информатика,2,0)</f>
+      <c r="F19" s="13">
+        <f t="shared" si="2"/>
         <v>95</v>
       </c>
-      <c r="G19" s="22">
-        <f>VLOOKUP(C19,Физика,2,0)</f>
+      <c r="G19" s="13">
+        <f t="shared" si="3"/>
         <v>95</v>
       </c>
-      <c r="H19" s="22" t="str">
-        <f>VLOOKUP(C19,Черчение,2,0)</f>
+      <c r="H19" s="13" t="str">
+        <f t="shared" si="4"/>
         <v>н/я</v>
       </c>
-      <c r="I19" s="22">
-        <f t="shared" si="1"/>
+      <c r="I19" s="13">
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
-      <c r="J19" s="22">
-        <f t="shared" ref="J19:J22" si="6">IF(E19="н/я",0,IF(E19&lt;42,2,IF(AND(E19&gt;=42,E19&lt;=64),3,
+      <c r="J19" s="13">
+        <f t="shared" ref="J19:J22" si="11">IF(E19="н/я",0,IF(E19&lt;42,2,IF(AND(E19&gt;=42,E19&lt;=64),3,
 IF(AND(E19&gt;=65,E19&lt;=79),4,5))))</f>
         <v>5</v>
       </c>
-      <c r="K19" s="22">
-        <f t="shared" ref="K19:K22" si="7">IF(F19="н/я",0,IF(F19&lt;42,2,IF(AND(F19&gt;=42,F19&lt;=64),3,
+      <c r="K19" s="13">
+        <f t="shared" ref="K19:K22" si="12">IF(F19="н/я",0,IF(F19&lt;42,2,IF(AND(F19&gt;=42,F19&lt;=64),3,
 IF(AND(F19&gt;=65,F19&lt;=79),4,5))))</f>
         <v>5</v>
       </c>
-      <c r="L19" s="22">
-        <f t="shared" ref="L19:L22" si="8">IF(G19="н/я",0,IF(G19&lt;42,2,IF(AND(G19&gt;=42,G19&lt;=64),3,
+      <c r="L19" s="13">
+        <f t="shared" ref="L19:L22" si="13">IF(G19="н/я",0,IF(G19&lt;42,2,IF(AND(G19&gt;=42,G19&lt;=64),3,
 IF(AND(G19&gt;=65,G19&lt;=79),4,5))))</f>
         <v>5</v>
       </c>
-      <c r="M19" s="22">
-        <f t="shared" ref="M19:M22" si="9">IF(H19="н/я",0,IF(H19&lt;42,2,IF(AND(H19&gt;=42,H19&lt;=64),3,
+      <c r="M19" s="13">
+        <f t="shared" ref="M19:M22" si="14">IF(H19="н/я",0,IF(H19&lt;42,2,IF(AND(H19&gt;=42,H19&lt;=64),3,
 IF(AND(H19&gt;=65,H19&lt;=79),4,5))))</f>
         <v>0</v>
       </c>
-      <c r="N19" s="22">
-        <f t="shared" si="2"/>
+      <c r="N19" s="13">
+        <f t="shared" si="7"/>
         <v>377</v>
       </c>
-      <c r="O19" s="22">
-        <f t="shared" si="3"/>
+      <c r="O19" s="13">
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
-      <c r="P19" s="22" t="str">
-        <f t="shared" si="4"/>
+      <c r="P19" s="13" t="str">
+        <f t="shared" si="9"/>
         <v>2 степень обученности</v>
       </c>
-      <c r="Q19" s="23">
-        <f t="shared" si="5"/>
+      <c r="Q19" s="14">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:17" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="21">
+      <c r="A20" s="12">
         <v>18</v>
       </c>
       <c r="B20" s="6" t="s">
@@ -6195,65 +8282,65 @@
       <c r="C20" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="D20" s="22">
-        <f>VLOOKUP(C20,История,2,0)</f>
+      <c r="D20" s="13">
+        <f t="shared" si="0"/>
         <v>98</v>
       </c>
-      <c r="E20" s="22">
-        <f>VLOOKUP(C20,Математика,2,0)</f>
+      <c r="E20" s="13">
+        <f t="shared" si="1"/>
         <v>92</v>
       </c>
-      <c r="F20" s="22">
-        <f>VLOOKUP(C20,Информатика,2,0)</f>
+      <c r="F20" s="13">
+        <f t="shared" si="2"/>
         <v>71</v>
       </c>
-      <c r="G20" s="22">
-        <f>VLOOKUP(C20,Физика,2,0)</f>
+      <c r="G20" s="13">
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
-      <c r="H20" s="22">
-        <f>VLOOKUP(C20,Черчение,2,0)</f>
+      <c r="H20" s="13">
+        <f t="shared" si="4"/>
         <v>95</v>
       </c>
-      <c r="I20" s="22">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="J20" s="22">
+      <c r="I20" s="13">
         <f t="shared" si="6"/>
         <v>5</v>
       </c>
-      <c r="K20" s="22">
+      <c r="J20" s="13">
+        <f t="shared" si="11"/>
+        <v>5</v>
+      </c>
+      <c r="K20" s="13">
+        <f t="shared" si="12"/>
+        <v>4</v>
+      </c>
+      <c r="L20" s="13">
+        <f t="shared" si="13"/>
+        <v>5</v>
+      </c>
+      <c r="M20" s="13">
+        <f t="shared" si="14"/>
+        <v>5</v>
+      </c>
+      <c r="N20" s="13">
         <f t="shared" si="7"/>
-        <v>4</v>
-      </c>
-      <c r="L20" s="22">
+        <v>456</v>
+      </c>
+      <c r="O20" s="13">
         <f t="shared" si="8"/>
-        <v>5</v>
-      </c>
-      <c r="M20" s="22">
+        <v>4.8</v>
+      </c>
+      <c r="P20" s="13" t="str">
         <f t="shared" si="9"/>
-        <v>5</v>
-      </c>
-      <c r="N20" s="22">
-        <f t="shared" si="2"/>
-        <v>456</v>
-      </c>
-      <c r="O20" s="22">
-        <f t="shared" si="3"/>
-        <v>4.8</v>
-      </c>
-      <c r="P20" s="22" t="str">
-        <f t="shared" si="4"/>
         <v>3 степень обученности</v>
       </c>
-      <c r="Q20" s="23">
-        <f t="shared" si="5"/>
+      <c r="Q20" s="14">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:17" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="21">
+      <c r="A21" s="12">
         <v>19</v>
       </c>
       <c r="B21" s="6" t="s">
@@ -6262,65 +8349,65 @@
       <c r="C21" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D21" s="22">
-        <f>VLOOKUP(C21,История,2,0)</f>
+      <c r="D21" s="13">
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="E21" s="22">
-        <f>VLOOKUP(C21,Математика,2,0)</f>
+      <c r="E21" s="13">
+        <f t="shared" si="1"/>
         <v>84</v>
       </c>
-      <c r="F21" s="22" t="str">
-        <f>VLOOKUP(C21,Информатика,2,0)</f>
+      <c r="F21" s="13" t="str">
+        <f t="shared" si="2"/>
         <v>н/я</v>
       </c>
-      <c r="G21" s="22">
-        <f>VLOOKUP(C21,Физика,2,0)</f>
+      <c r="G21" s="13">
+        <f t="shared" si="3"/>
         <v>75</v>
       </c>
-      <c r="H21" s="22">
-        <f>VLOOKUP(C21,Черчение,2,0)</f>
+      <c r="H21" s="13">
+        <f t="shared" si="4"/>
         <v>78</v>
       </c>
-      <c r="I21" s="22">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="J21" s="22">
+      <c r="I21" s="13">
         <f t="shared" si="6"/>
         <v>5</v>
       </c>
-      <c r="K21" s="22">
+      <c r="J21" s="13">
+        <f t="shared" si="11"/>
+        <v>5</v>
+      </c>
+      <c r="K21" s="13">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="L21" s="13">
+        <f t="shared" si="13"/>
+        <v>4</v>
+      </c>
+      <c r="M21" s="13">
+        <f t="shared" si="14"/>
+        <v>4</v>
+      </c>
+      <c r="N21" s="13">
         <f t="shared" si="7"/>
+        <v>337</v>
+      </c>
+      <c r="O21" s="13">
+        <f t="shared" si="8"/>
+        <v>3.6</v>
+      </c>
+      <c r="P21" s="13" t="str">
+        <f t="shared" si="9"/>
+        <v>2 степень обученности</v>
+      </c>
+      <c r="Q21" s="14">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="L21" s="22">
-        <f t="shared" si="8"/>
-        <v>4</v>
-      </c>
-      <c r="M21" s="22">
-        <f t="shared" si="9"/>
-        <v>4</v>
-      </c>
-      <c r="N21" s="22">
-        <f t="shared" si="2"/>
-        <v>337</v>
-      </c>
-      <c r="O21" s="22">
-        <f t="shared" si="3"/>
-        <v>3.6</v>
-      </c>
-      <c r="P21" s="22" t="str">
-        <f t="shared" si="4"/>
-        <v>2 степень обученности</v>
-      </c>
-      <c r="Q21" s="23">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
     </row>
     <row r="22" spans="1:17" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="21">
+      <c r="A22" s="12">
         <v>20</v>
       </c>
       <c r="B22" s="6" t="s">
@@ -6329,198 +8416,308 @@
       <c r="C22" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="D22" s="22" t="str">
-        <f>VLOOKUP(C22,История,2,0)</f>
+      <c r="D22" s="13" t="str">
+        <f t="shared" si="0"/>
         <v>н/я</v>
       </c>
-      <c r="E22" s="22">
-        <f>VLOOKUP(C22,Математика,2,0)</f>
+      <c r="E22" s="13">
+        <f t="shared" si="1"/>
         <v>97</v>
       </c>
-      <c r="F22" s="22">
-        <f>VLOOKUP(C22,Информатика,2,0)</f>
+      <c r="F22" s="13">
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
-      <c r="G22" s="22">
-        <f>VLOOKUP(C22,Физика,2,0)</f>
+      <c r="G22" s="13">
+        <f t="shared" si="3"/>
         <v>78</v>
       </c>
-      <c r="H22" s="22">
-        <f>VLOOKUP(C22,Черчение,2,0)</f>
+      <c r="H22" s="13">
+        <f t="shared" si="4"/>
         <v>83</v>
       </c>
-      <c r="I22" s="22">
-        <f t="shared" si="1"/>
+      <c r="I22" s="13">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="J22" s="22">
-        <f t="shared" si="6"/>
+      <c r="J22" s="13">
+        <f t="shared" si="11"/>
         <v>5</v>
       </c>
-      <c r="K22" s="22">
+      <c r="K22" s="13">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="L22" s="13">
+        <f t="shared" si="13"/>
+        <v>4</v>
+      </c>
+      <c r="M22" s="13">
+        <f t="shared" si="14"/>
+        <v>5</v>
+      </c>
+      <c r="N22" s="13">
         <f t="shared" si="7"/>
-        <v>2</v>
-      </c>
-      <c r="L22" s="22">
+        <v>274</v>
+      </c>
+      <c r="O22" s="13">
         <f t="shared" si="8"/>
-        <v>4</v>
-      </c>
-      <c r="M22" s="22">
+        <v>3.2</v>
+      </c>
+      <c r="P22" s="13" t="str">
         <f t="shared" si="9"/>
-        <v>5</v>
-      </c>
-      <c r="N22" s="22">
-        <f t="shared" si="2"/>
-        <v>274</v>
-      </c>
-      <c r="O22" s="22">
-        <f t="shared" si="3"/>
-        <v>3.2</v>
-      </c>
-      <c r="P22" s="22" t="str">
-        <f t="shared" si="4"/>
         <v>2 степень обученности</v>
       </c>
-      <c r="Q22" s="23">
-        <f t="shared" si="5"/>
+      <c r="Q22" s="14">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:17" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="24" t="s">
+      <c r="A23" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="B23" s="25"/>
-      <c r="C23" s="25"/>
-      <c r="D23" s="26">
+      <c r="B23" s="37"/>
+      <c r="C23" s="37"/>
+      <c r="D23" s="15">
         <f>AVERAGE(D3:D22)</f>
         <v>61.222222222222221</v>
       </c>
-      <c r="E23" s="26">
-        <f t="shared" ref="E23:M23" si="10">AVERAGE(E3:E22)</f>
+      <c r="E23" s="15">
+        <f t="shared" ref="E23:M23" si="15">AVERAGE(E3:E22)</f>
         <v>77.111111111111114</v>
       </c>
-      <c r="F23" s="26">
-        <f t="shared" si="10"/>
+      <c r="F23" s="15">
+        <f t="shared" si="15"/>
         <v>55.705882352941174</v>
       </c>
-      <c r="G23" s="26">
-        <f t="shared" si="10"/>
+      <c r="G23" s="15">
+        <f t="shared" si="15"/>
         <v>76.526315789473685</v>
       </c>
-      <c r="H23" s="26">
-        <f t="shared" si="10"/>
+      <c r="H23" s="15">
+        <f t="shared" si="15"/>
         <v>84.421052631578945</v>
       </c>
-      <c r="I23" s="26">
-        <f t="shared" si="10"/>
+      <c r="I23" s="15">
+        <f t="shared" si="15"/>
         <v>3.35</v>
       </c>
-      <c r="J23" s="26">
-        <f t="shared" si="10"/>
+      <c r="J23" s="15">
+        <f t="shared" si="15"/>
         <v>3.8</v>
       </c>
-      <c r="K23" s="26">
-        <f t="shared" si="10"/>
+      <c r="K23" s="15">
+        <f t="shared" si="15"/>
         <v>2.9</v>
       </c>
-      <c r="L23" s="26">
-        <f t="shared" si="10"/>
+      <c r="L23" s="15">
+        <f t="shared" si="15"/>
         <v>4</v>
       </c>
-      <c r="M23" s="26">
-        <f t="shared" si="10"/>
+      <c r="M23" s="15">
+        <f t="shared" si="15"/>
         <v>4.4000000000000004</v>
       </c>
-      <c r="N23" s="25"/>
-      <c r="O23" s="25"/>
-      <c r="P23" s="25"/>
-      <c r="Q23" s="27"/>
+      <c r="N23" s="37"/>
+      <c r="O23" s="37"/>
+      <c r="P23" s="37"/>
+      <c r="Q23" s="40"/>
     </row>
     <row r="24" spans="1:17" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="24" t="s">
+      <c r="A24" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="B24" s="25"/>
-      <c r="C24" s="25"/>
-      <c r="D24" s="25"/>
-      <c r="E24" s="25"/>
-      <c r="F24" s="25"/>
-      <c r="G24" s="25"/>
-      <c r="H24" s="25"/>
-      <c r="I24" s="25"/>
-      <c r="J24" s="25"/>
-      <c r="K24" s="25"/>
-      <c r="L24" s="25"/>
-      <c r="M24" s="25"/>
-      <c r="N24" s="25"/>
-      <c r="O24" s="25"/>
-      <c r="P24" s="32">
+      <c r="B24" s="37"/>
+      <c r="C24" s="37"/>
+      <c r="D24" s="37"/>
+      <c r="E24" s="37"/>
+      <c r="F24" s="37"/>
+      <c r="G24" s="37"/>
+      <c r="H24" s="37"/>
+      <c r="I24" s="37"/>
+      <c r="J24" s="37"/>
+      <c r="K24" s="37"/>
+      <c r="L24" s="37"/>
+      <c r="M24" s="37"/>
+      <c r="N24" s="37"/>
+      <c r="O24" s="37"/>
+      <c r="P24" s="18">
         <f>COUNTIF($P$3:$P$22,"1 степень обученности")</f>
         <v>3</v>
       </c>
-      <c r="Q24" s="28">
+      <c r="Q24" s="16">
         <f>P24/20</f>
         <v>0.15</v>
       </c>
     </row>
     <row r="25" spans="1:17" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="24" t="s">
+      <c r="A25" s="36" t="s">
         <v>59</v>
       </c>
-      <c r="B25" s="25"/>
-      <c r="C25" s="25"/>
-      <c r="D25" s="25"/>
-      <c r="E25" s="25"/>
-      <c r="F25" s="25"/>
-      <c r="G25" s="25"/>
-      <c r="H25" s="25"/>
-      <c r="I25" s="25"/>
-      <c r="J25" s="25"/>
-      <c r="K25" s="25"/>
-      <c r="L25" s="25"/>
-      <c r="M25" s="25"/>
-      <c r="N25" s="25"/>
-      <c r="O25" s="25"/>
+      <c r="B25" s="37"/>
+      <c r="C25" s="37"/>
+      <c r="D25" s="37"/>
+      <c r="E25" s="37"/>
+      <c r="F25" s="37"/>
+      <c r="G25" s="37"/>
+      <c r="H25" s="37"/>
+      <c r="I25" s="37"/>
+      <c r="J25" s="37"/>
+      <c r="K25" s="37"/>
+      <c r="L25" s="37"/>
+      <c r="M25" s="37"/>
+      <c r="N25" s="37"/>
+      <c r="O25" s="37"/>
       <c r="P25" s="6">
         <f>COUNTIF($P$3:$P$22,"2 степень обученности")</f>
         <v>14</v>
       </c>
-      <c r="Q25" s="28">
-        <f t="shared" ref="Q25:Q26" si="11">P25/20</f>
+      <c r="Q25" s="16">
+        <f t="shared" ref="Q25:Q26" si="16">P25/20</f>
         <v>0.7</v>
       </c>
     </row>
     <row r="26" spans="1:17" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="29" t="s">
+      <c r="A26" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="B26" s="30"/>
-      <c r="C26" s="30"/>
-      <c r="D26" s="30"/>
-      <c r="E26" s="30"/>
-      <c r="F26" s="30"/>
-      <c r="G26" s="30"/>
-      <c r="H26" s="30"/>
-      <c r="I26" s="30"/>
-      <c r="J26" s="30"/>
-      <c r="K26" s="30"/>
-      <c r="L26" s="30"/>
-      <c r="M26" s="30"/>
-      <c r="N26" s="30"/>
-      <c r="O26" s="30"/>
-      <c r="P26" s="33">
+      <c r="B26" s="39"/>
+      <c r="C26" s="39"/>
+      <c r="D26" s="39"/>
+      <c r="E26" s="39"/>
+      <c r="F26" s="39"/>
+      <c r="G26" s="39"/>
+      <c r="H26" s="39"/>
+      <c r="I26" s="39"/>
+      <c r="J26" s="39"/>
+      <c r="K26" s="39"/>
+      <c r="L26" s="39"/>
+      <c r="M26" s="39"/>
+      <c r="N26" s="39"/>
+      <c r="O26" s="39"/>
+      <c r="P26" s="19">
         <f>COUNTIF($P$3:$P$22,"3 степень обученности")</f>
         <v>3</v>
       </c>
-      <c r="Q26" s="31">
-        <f t="shared" si="11"/>
+      <c r="Q26" s="17">
+        <f t="shared" si="16"/>
         <v>0.15</v>
       </c>
     </row>
     <row r="27" spans="1:17" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="44" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="45" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F45" s="55" t="s">
+        <v>74</v>
+      </c>
+      <c r="G45" s="56"/>
+      <c r="H45" s="56"/>
+      <c r="I45" s="56"/>
+      <c r="J45" s="56"/>
+      <c r="K45" s="56"/>
+      <c r="L45" s="56"/>
+      <c r="M45" s="56"/>
+      <c r="N45" s="57"/>
+    </row>
+    <row r="46" spans="2:14" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B46" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="C46" s="33"/>
+      <c r="F46" s="62"/>
+      <c r="G46" s="63"/>
+      <c r="H46" s="63"/>
+      <c r="I46" s="63"/>
+      <c r="J46" s="63"/>
+      <c r="K46" s="64"/>
+      <c r="L46" s="53">
+        <v>2021</v>
+      </c>
+      <c r="M46" s="53">
+        <v>2022</v>
+      </c>
+      <c r="N46" s="58">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B47" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="C47" s="50" t="s">
+        <v>70</v>
+      </c>
+      <c r="F47" s="59" t="s">
+        <v>72</v>
+      </c>
+      <c r="G47" s="54"/>
+      <c r="H47" s="54"/>
+      <c r="I47" s="54"/>
+      <c r="J47" s="54"/>
+      <c r="K47" s="54"/>
+      <c r="L47" s="65">
+        <v>0.06</v>
+      </c>
+      <c r="M47" s="65">
+        <v>0.06</v>
+      </c>
+      <c r="N47" s="66">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B48" s="51">
+        <v>235</v>
+      </c>
+      <c r="C48" s="52">
+        <v>68</v>
+      </c>
+      <c r="F48" s="59" t="s">
+        <v>71</v>
+      </c>
+      <c r="G48" s="54"/>
+      <c r="H48" s="54"/>
+      <c r="I48" s="54"/>
+      <c r="J48" s="54"/>
+      <c r="K48" s="54"/>
+      <c r="L48" s="65">
+        <v>0.03</v>
+      </c>
+      <c r="M48" s="65">
+        <v>0.03</v>
+      </c>
+      <c r="N48" s="66">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="49" spans="6:14" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F49" s="60" t="s">
+        <v>73</v>
+      </c>
+      <c r="G49" s="61"/>
+      <c r="H49" s="61"/>
+      <c r="I49" s="61"/>
+      <c r="J49" s="61"/>
+      <c r="K49" s="61"/>
+      <c r="L49" s="67">
+        <v>0.91</v>
+      </c>
+      <c r="M49" s="67">
+        <v>0.91</v>
+      </c>
+      <c r="N49" s="68">
+        <v>0.93</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="16">
+  <mergeCells count="22">
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="F48:K48"/>
+    <mergeCell ref="F47:K47"/>
+    <mergeCell ref="F49:K49"/>
+    <mergeCell ref="F45:N45"/>
+    <mergeCell ref="F46:K46"/>
     <mergeCell ref="S1:T1"/>
     <mergeCell ref="W1:X1"/>
     <mergeCell ref="A24:O24"/>
@@ -6539,7 +8736,8 @@
     <mergeCell ref="P1:P2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
